--- a/src/goods.xlsx
+++ b/src/goods.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20357"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0228A8-488E-47FF-8898-FBBECB451F18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19050" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19056" windowHeight="12876"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -158,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -485,23 +484,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.625" customWidth="1"/>
-    <col min="2" max="5" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="5" width="21.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -553,7 +552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -579,7 +578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -599,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -619,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -638,8 +637,11 @@
       <c r="F6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
@@ -662,7 +664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>101</v>
       </c>
@@ -685,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>102</v>
       </c>
@@ -708,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>103</v>
       </c>
@@ -731,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>104</v>
       </c>
@@ -754,7 +756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>105</v>
       </c>
@@ -777,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>106</v>
       </c>
@@ -800,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>107</v>
       </c>
@@ -823,7 +825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>108</v>
       </c>
@@ -846,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>109</v>
       </c>
@@ -869,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>110</v>
       </c>
@@ -892,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>111</v>
       </c>
@@ -915,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>112</v>
       </c>
@@ -938,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>113</v>
       </c>
@@ -961,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1001</v>
       </c>
@@ -987,7 +989,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1002</v>
       </c>
@@ -1013,7 +1015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1003</v>
       </c>
@@ -1039,7 +1041,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1004</v>
       </c>
@@ -1065,7 +1067,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1005</v>
       </c>
@@ -1091,7 +1093,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1006</v>
       </c>
@@ -1125,6 +1127,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1132,31 +1159,6 @@
 </settings>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
@@ -1164,13 +1166,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1182,13 +1184,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/src/goods.xlsx
+++ b/src/goods.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -51,106 +51,440 @@
     <t>_desc</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>isBag</t>
+  </si>
+  <si>
+    <t>extraCfg</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>红糖果</t>
+  </si>
+  <si>
+    <t>橙糖果</t>
+  </si>
+  <si>
+    <t>黄糖果</t>
+  </si>
+  <si>
+    <t>绿糖果</t>
+  </si>
+  <si>
+    <t>青糖果</t>
+  </si>
+  <si>
+    <t>蓝糖果</t>
+  </si>
+  <si>
+    <t>紫糖果</t>
+  </si>
+  <si>
+    <t>红宝石</t>
+  </si>
+  <si>
+    <t>橙宝石</t>
+  </si>
+  <si>
+    <t>黄宝石</t>
+  </si>
+  <si>
+    <t>绿宝石</t>
+  </si>
+  <si>
+    <t>青宝石</t>
+  </si>
+  <si>
+    <t>蓝宝石</t>
+  </si>
+  <si>
+    <t>紫宝石</t>
+  </si>
+  <si>
+    <t>短剑</t>
+  </si>
+  <si>
+    <t>equip_icon</t>
+  </si>
+  <si>
+    <t>_cfg.equip</t>
+  </si>
+  <si>
+    <t>头盔</t>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>裤子</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>戒指</t>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assetName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tring</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bananas</t>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝莓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueberry</t>
+  </si>
+  <si>
+    <t>languageId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cherry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eggplant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grapes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiwi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pineapple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpiking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">watermelon </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carrot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡萝卜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猕猴桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪梨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝莓种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡萝卜种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱桃种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄子种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猕猴桃种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙子种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃子种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪梨种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>assetBundle</t>
-  </si>
-  <si>
-    <t>languageId</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>isBag</t>
-  </si>
-  <si>
-    <t>extraCfg</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>goods</t>
-  </si>
-  <si>
-    <t>钻石</t>
-  </si>
-  <si>
-    <t>经验</t>
-  </si>
-  <si>
-    <t>红糖果</t>
-  </si>
-  <si>
-    <t>橙糖果</t>
-  </si>
-  <si>
-    <t>黄糖果</t>
-  </si>
-  <si>
-    <t>绿糖果</t>
-  </si>
-  <si>
-    <t>青糖果</t>
-  </si>
-  <si>
-    <t>蓝糖果</t>
-  </si>
-  <si>
-    <t>紫糖果</t>
-  </si>
-  <si>
-    <t>红宝石</t>
-  </si>
-  <si>
-    <t>橙宝石</t>
-  </si>
-  <si>
-    <t>黄宝石</t>
-  </si>
-  <si>
-    <t>绿宝石</t>
-  </si>
-  <si>
-    <t>青宝石</t>
-  </si>
-  <si>
-    <t>蓝宝石</t>
-  </si>
-  <si>
-    <t>紫宝石</t>
-  </si>
-  <si>
-    <t>短剑</t>
-  </si>
-  <si>
-    <t>equip_icon</t>
-  </si>
-  <si>
-    <t>_cfg.equip</t>
-  </si>
-  <si>
-    <t>头盔</t>
-  </si>
-  <si>
-    <t>衣服</t>
-  </si>
-  <si>
-    <t>裤子</t>
-  </si>
-  <si>
-    <t>鞋子</t>
-  </si>
-  <si>
-    <t>戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assetName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>goodsType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cfg.crop</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,12 +537,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,22 +834,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43:H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="2" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,613 +861,1491 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4">
+        <v>10001</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>10001</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5">
         <v>10002</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6">
+        <v>10003</v>
+      </c>
+      <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="D6">
-        <v>10003</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7">
         <v>10004</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7">
         <v>100</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8">
         <v>10005</v>
       </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
         <v>100</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9">
         <v>10006</v>
       </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9">
         <v>100</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10">
         <v>10007</v>
       </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10">
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10">
         <v>100</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11">
         <v>10008</v>
       </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11">
         <v>100</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12">
         <v>10009</v>
       </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12">
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12">
         <v>100</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13">
         <v>10010</v>
       </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13">
         <v>100</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14">
         <v>10011</v>
       </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14">
         <v>101</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15">
         <v>10012</v>
       </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15">
         <v>101</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16">
         <v>10013</v>
       </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16">
         <v>101</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17">
         <v>10014</v>
       </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17">
         <v>101</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18">
         <v>10015</v>
       </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18">
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18">
         <v>101</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19">
         <v>10016</v>
       </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19">
         <v>101</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20">
         <v>10017</v>
       </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20">
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20">
         <v>101</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1001</v>
       </c>
       <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21">
+        <v>10018</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21">
+        <v>1000</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
         <v>35</v>
       </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21">
-        <v>10018</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21">
-        <v>1000</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1002</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22">
+        <v>10019</v>
+      </c>
+      <c r="F22" t="s">
         <v>36</v>
       </c>
-      <c r="D22">
-        <v>10019</v>
-      </c>
-      <c r="E22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
         <v>1000</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1003</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23">
+        <v>34</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23">
         <v>10020</v>
       </c>
-      <c r="E23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23">
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23">
         <v>1000</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1004</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24">
+        <v>34</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24">
         <v>10021</v>
       </c>
-      <c r="E24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24">
         <v>1000</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1005</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25">
+        <v>34</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25">
         <v>10022</v>
       </c>
-      <c r="E25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25">
         <v>1000</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1006</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26">
+        <v>34</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26">
         <v>10023</v>
       </c>
-      <c r="E26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26">
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26">
         <v>1000</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>37</v>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2001</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27">
+        <v>2000</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2002</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28">
+        <v>2000</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2003</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29">
+        <v>2000</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2004</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30">
+        <v>2000</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2005</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31">
+        <v>2000</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2006</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32">
+        <v>2000</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2007</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33">
+        <v>2000</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2008</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34">
+        <v>2000</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2009</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35">
+        <v>2000</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2010</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36">
+        <v>2000</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2011</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37">
+        <v>2000</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2012</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38">
+        <v>2000</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2013</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39">
+        <v>2000</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2014</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40">
+        <v>2000</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2015</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41">
+        <v>2000</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2016</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42">
+        <v>2000</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3001</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43">
+        <v>2001</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3002</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44">
+        <v>2001</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3003</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45">
+        <v>2001</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3004</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46">
+        <v>2001</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3005</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47">
+        <v>2001</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3006</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48">
+        <v>2001</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3007</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49">
+        <v>2001</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3008</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50">
+        <v>2001</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3009</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G51">
+        <v>2001</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3010</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52">
+        <v>2001</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3011</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53">
+        <v>2001</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3012</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G54">
+        <v>2001</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3013</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55">
+        <v>2001</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3014</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56">
+        <v>2001</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3015</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57">
+        <v>2001</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3016</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58">
+        <v>2001</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/src/goods.xlsx
+++ b/src/goods.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20359"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5E8D5A-C501-4968-A207-F393352271EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19056" windowHeight="12876"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19050" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="211">
   <si>
     <t>ID</t>
   </si>
@@ -118,9 +120,6 @@
   </si>
   <si>
     <t>紫宝石</t>
-  </si>
-  <si>
-    <t>短剑</t>
   </si>
   <si>
     <t>equip_icon</t>
@@ -487,11 +486,299 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血怒战甲</t>
+  </si>
+  <si>
+    <t>圣骑战甲</t>
+  </si>
+  <si>
+    <t>剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙骨</t>
+  </si>
+  <si>
+    <t>丛云</t>
+  </si>
+  <si>
+    <t>勇士</t>
+  </si>
+  <si>
+    <t>圣骑</t>
+  </si>
+  <si>
+    <t>吟游</t>
+  </si>
+  <si>
+    <t>王者</t>
+  </si>
+  <si>
+    <t>狩魂</t>
+  </si>
+  <si>
+    <t>炎魔</t>
+  </si>
+  <si>
+    <t>血怒</t>
+  </si>
+  <si>
+    <t>死神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙骨剑</t>
+  </si>
+  <si>
+    <t>龙骨盔</t>
+  </si>
+  <si>
+    <t>龙骨战甲</t>
+  </si>
+  <si>
+    <t>龙骨裤</t>
+  </si>
+  <si>
+    <t>龙骨战靴</t>
+  </si>
+  <si>
+    <t>龙骨之戒</t>
+  </si>
+  <si>
+    <t>丛云剑</t>
+  </si>
+  <si>
+    <t>丛云盔</t>
+  </si>
+  <si>
+    <t>丛云战甲</t>
+  </si>
+  <si>
+    <t>丛云裤</t>
+  </si>
+  <si>
+    <t>丛云战靴</t>
+  </si>
+  <si>
+    <t>丛云之戒</t>
+  </si>
+  <si>
+    <t>勇士剑</t>
+  </si>
+  <si>
+    <t>勇士盔</t>
+  </si>
+  <si>
+    <t>勇士战甲</t>
+  </si>
+  <si>
+    <t>勇士裤</t>
+  </si>
+  <si>
+    <t>勇士战靴</t>
+  </si>
+  <si>
+    <t>勇士之戒</t>
+  </si>
+  <si>
+    <t>圣骑剑</t>
+  </si>
+  <si>
+    <t>圣骑盔</t>
+  </si>
+  <si>
+    <t>圣骑裤</t>
+  </si>
+  <si>
+    <t>圣骑战靴</t>
+  </si>
+  <si>
+    <t>圣骑之戒</t>
+  </si>
+  <si>
+    <t>吟游剑</t>
+  </si>
+  <si>
+    <t>吟游盔</t>
+  </si>
+  <si>
+    <t>吟游战甲</t>
+  </si>
+  <si>
+    <t>吟游裤</t>
+  </si>
+  <si>
+    <t>吟游战靴</t>
+  </si>
+  <si>
+    <t>吟游之戒</t>
+  </si>
+  <si>
+    <t>狩魂剑</t>
+  </si>
+  <si>
+    <t>狩魂盔</t>
+  </si>
+  <si>
+    <t>狩魂战甲</t>
+  </si>
+  <si>
+    <t>狩魂裤</t>
+  </si>
+  <si>
+    <t>狩魂战靴</t>
+  </si>
+  <si>
+    <t>狩魂之戒</t>
+  </si>
+  <si>
+    <t>炎魔剑</t>
+  </si>
+  <si>
+    <t>炎魔盔</t>
+  </si>
+  <si>
+    <t>炎魔战甲</t>
+  </si>
+  <si>
+    <t>炎魔裤</t>
+  </si>
+  <si>
+    <t>炎魔战靴</t>
+  </si>
+  <si>
+    <t>炎魔之戒</t>
+  </si>
+  <si>
+    <t>血怒剑</t>
+  </si>
+  <si>
+    <t>血怒盔</t>
+  </si>
+  <si>
+    <t>血怒裤</t>
+  </si>
+  <si>
+    <t>血怒战靴</t>
+  </si>
+  <si>
+    <t>血怒之戒</t>
+  </si>
+  <si>
+    <t>死神剑</t>
+  </si>
+  <si>
+    <t>死神盔</t>
+  </si>
+  <si>
+    <t>死神战甲</t>
+  </si>
+  <si>
+    <t>死神裤</t>
+  </si>
+  <si>
+    <t>死神战靴</t>
+  </si>
+  <si>
+    <t>死神之戒</t>
+  </si>
+  <si>
+    <t>王者剑</t>
+  </si>
+  <si>
+    <t>王者盔</t>
+  </si>
+  <si>
+    <t>王者战甲</t>
+  </si>
+  <si>
+    <t>王者裤</t>
+  </si>
+  <si>
+    <t>王者战靴</t>
+  </si>
+  <si>
+    <t>王者之戒</t>
+  </si>
+  <si>
+    <t>风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风暴剑</t>
+  </si>
+  <si>
+    <t>风暴盔</t>
+  </si>
+  <si>
+    <t>风暴战甲</t>
+  </si>
+  <si>
+    <t>风暴裤</t>
+  </si>
+  <si>
+    <t>风暴战靴</t>
+  </si>
+  <si>
+    <t>风暴之戒</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,6 +790,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -833,25 +1121,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43:H58"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="33.625" customWidth="1"/>
+    <col min="2" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
+    <col min="5" max="6" width="21.5" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +1150,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -880,7 +1168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -888,19 +1176,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -909,7 +1197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -917,10 +1205,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -938,7 +1226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -949,7 +1237,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4">
         <v>10001</v>
@@ -961,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -972,7 +1260,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5">
         <v>10002</v>
@@ -984,7 +1272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -995,7 +1283,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>10003</v>
@@ -1010,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>100</v>
       </c>
@@ -1021,7 +1309,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <v>10004</v>
@@ -1036,7 +1324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>101</v>
       </c>
@@ -1047,7 +1335,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8">
         <v>10005</v>
@@ -1062,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>102</v>
       </c>
@@ -1073,7 +1361,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>10006</v>
@@ -1088,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>103</v>
       </c>
@@ -1099,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10">
         <v>10007</v>
@@ -1114,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>104</v>
       </c>
@@ -1125,7 +1413,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11">
         <v>10008</v>
@@ -1140,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>105</v>
       </c>
@@ -1151,7 +1439,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12">
         <v>10009</v>
@@ -1166,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>106</v>
       </c>
@@ -1177,7 +1465,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13">
         <v>10010</v>
@@ -1192,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>107</v>
       </c>
@@ -1203,7 +1491,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14">
         <v>10011</v>
@@ -1218,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>108</v>
       </c>
@@ -1229,7 +1517,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15">
         <v>10012</v>
@@ -1244,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>109</v>
       </c>
@@ -1255,7 +1543,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16">
         <v>10013</v>
@@ -1270,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>110</v>
       </c>
@@ -1281,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17">
         <v>10014</v>
@@ -1296,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>111</v>
       </c>
@@ -1307,7 +1595,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18">
         <v>10015</v>
@@ -1322,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>112</v>
       </c>
@@ -1333,7 +1621,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E19">
         <v>10016</v>
@@ -1348,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>113</v>
       </c>
@@ -1359,7 +1647,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20">
         <v>10017</v>
@@ -1374,24 +1662,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1001</v>
       </c>
-      <c r="B21" t="s">
-        <v>33</v>
+      <c r="B21" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21">
         <v>10018</v>
       </c>
-      <c r="F21" t="s">
-        <v>33</v>
+      <c r="F21" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="G21">
         <v>1000</v>
@@ -1400,27 +1688,27 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1002</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E22">
         <v>10019</v>
       </c>
-      <c r="F22" t="s">
-        <v>36</v>
+      <c r="F22" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="G22">
         <v>1000</v>
@@ -1429,27 +1717,27 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1003</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23">
         <v>10020</v>
       </c>
-      <c r="F23" t="s">
-        <v>37</v>
+      <c r="F23" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="G23">
         <v>1000</v>
@@ -1458,27 +1746,27 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1004</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E24">
         <v>10021</v>
       </c>
-      <c r="F24" t="s">
-        <v>38</v>
+      <c r="F24" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="G24">
         <v>1000</v>
@@ -1487,27 +1775,27 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1005</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25">
         <v>10022</v>
       </c>
-      <c r="F25" t="s">
-        <v>39</v>
+      <c r="F25" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="G25">
         <v>1000</v>
@@ -1516,842 +1804,3564 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1006</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E26">
         <v>10023</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26">
+        <v>1000</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1011</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27">
+        <v>10018</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27">
+        <v>1000</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1012</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28">
+        <v>10019</v>
+      </c>
+      <c r="F28" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28">
+        <v>1000</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1013</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29">
+        <v>10020</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29">
+        <v>1000</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1014</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30">
+        <v>10021</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30">
+        <v>1000</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1015</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31">
+        <v>10022</v>
+      </c>
+      <c r="F31" t="s">
+        <v>209</v>
+      </c>
+      <c r="G31">
+        <v>1000</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1016</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32">
+        <v>10023</v>
+      </c>
+      <c r="F32" t="s">
+        <v>210</v>
+      </c>
+      <c r="G32">
+        <v>1000</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1021</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33">
+        <v>10018</v>
+      </c>
+      <c r="F33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33">
+        <v>1000</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1022</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34">
+        <v>10019</v>
+      </c>
+      <c r="F34" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34">
+        <v>1000</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1023</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35">
+        <v>10020</v>
+      </c>
+      <c r="F35" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35">
+        <v>1000</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1024</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36">
+        <v>10021</v>
+      </c>
+      <c r="F36" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36">
+        <v>1000</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1025</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37">
+        <v>10022</v>
+      </c>
+      <c r="F37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37">
+        <v>1000</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1026</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38">
+        <v>10023</v>
+      </c>
+      <c r="F38" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38">
+        <v>1000</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1031</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39">
+        <v>10018</v>
+      </c>
+      <c r="F39" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39">
+        <v>1000</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1032</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40">
+        <v>10019</v>
+      </c>
+      <c r="F40" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40">
+        <v>1000</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1033</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41">
+        <v>10020</v>
+      </c>
+      <c r="F41" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41">
+        <v>1000</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1034</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42">
+        <v>10021</v>
+      </c>
+      <c r="F42" t="s">
+        <v>155</v>
+      </c>
+      <c r="G42">
+        <v>1000</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1035</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43">
+        <v>10022</v>
+      </c>
+      <c r="F43" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43">
+        <v>1000</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1036</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44">
+        <v>10023</v>
+      </c>
+      <c r="F44" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44">
+        <v>1000</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1041</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45">
+        <v>10018</v>
+      </c>
+      <c r="F45" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45">
+        <v>1000</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1042</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46">
+        <v>10019</v>
+      </c>
+      <c r="F46" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46">
+        <v>1000</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1043</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47">
+        <v>10020</v>
+      </c>
+      <c r="F47" t="s">
+        <v>160</v>
+      </c>
+      <c r="G47">
+        <v>1000</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1044</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48">
+        <v>10021</v>
+      </c>
+      <c r="F48" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48">
+        <v>1000</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1045</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49">
+        <v>10022</v>
+      </c>
+      <c r="F49" t="s">
+        <v>162</v>
+      </c>
+      <c r="G49">
+        <v>1000</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1046</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50">
+        <v>10023</v>
+      </c>
+      <c r="F50" t="s">
+        <v>163</v>
+      </c>
+      <c r="G50">
+        <v>1000</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1051</v>
+      </c>
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51">
+        <v>10018</v>
+      </c>
+      <c r="F51" t="s">
+        <v>164</v>
+      </c>
+      <c r="G51">
+        <v>1000</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1052</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52">
+        <v>10019</v>
+      </c>
+      <c r="F52" t="s">
+        <v>165</v>
+      </c>
+      <c r="G52">
+        <v>1000</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1053</v>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53">
+        <v>10020</v>
+      </c>
+      <c r="F53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53">
+        <v>1000</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1054</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54">
+        <v>10021</v>
+      </c>
+      <c r="F54" t="s">
+        <v>166</v>
+      </c>
+      <c r="G54">
+        <v>1000</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1055</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55">
+        <v>10022</v>
+      </c>
+      <c r="F55" t="s">
+        <v>167</v>
+      </c>
+      <c r="G55">
+        <v>1000</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1056</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56">
+        <v>10023</v>
+      </c>
+      <c r="F56" t="s">
+        <v>168</v>
+      </c>
+      <c r="G56">
+        <v>1000</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1061</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57">
+        <v>10018</v>
+      </c>
+      <c r="F57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G57">
+        <v>1000</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1062</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58">
+        <v>10019</v>
+      </c>
+      <c r="F58" t="s">
+        <v>170</v>
+      </c>
+      <c r="G58">
+        <v>1000</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1063</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59">
+        <v>10020</v>
+      </c>
+      <c r="F59" t="s">
+        <v>171</v>
+      </c>
+      <c r="G59">
+        <v>1000</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1064</v>
+      </c>
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60">
+        <v>10021</v>
+      </c>
+      <c r="F60" t="s">
+        <v>172</v>
+      </c>
+      <c r="G60">
+        <v>1000</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1065</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61">
+        <v>10022</v>
+      </c>
+      <c r="F61" t="s">
+        <v>173</v>
+      </c>
+      <c r="G61">
+        <v>1000</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1066</v>
+      </c>
+      <c r="B62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62">
+        <v>10023</v>
+      </c>
+      <c r="F62" t="s">
+        <v>174</v>
+      </c>
+      <c r="G62">
+        <v>1000</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1071</v>
+      </c>
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63">
+        <v>10018</v>
+      </c>
+      <c r="F63" t="s">
+        <v>175</v>
+      </c>
+      <c r="G63">
+        <v>1000</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1072</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64">
+        <v>10019</v>
+      </c>
+      <c r="F64" t="s">
+        <v>176</v>
+      </c>
+      <c r="G64">
+        <v>1000</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1073</v>
+      </c>
+      <c r="B65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65">
+        <v>10020</v>
+      </c>
+      <c r="F65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G65">
+        <v>1000</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1074</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66">
+        <v>10021</v>
+      </c>
+      <c r="F66" t="s">
+        <v>178</v>
+      </c>
+      <c r="G66">
+        <v>1000</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1075</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67">
+        <v>10022</v>
+      </c>
+      <c r="F67" t="s">
+        <v>179</v>
+      </c>
+      <c r="G67">
+        <v>1000</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1076</v>
+      </c>
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68">
+        <v>10023</v>
+      </c>
+      <c r="F68" t="s">
+        <v>180</v>
+      </c>
+      <c r="G68">
+        <v>1000</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1081</v>
+      </c>
+      <c r="B69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E69">
+        <v>10018</v>
+      </c>
+      <c r="F69" t="s">
+        <v>181</v>
+      </c>
+      <c r="G69">
+        <v>1000</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1082</v>
+      </c>
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70">
+        <v>10019</v>
+      </c>
+      <c r="F70" t="s">
+        <v>182</v>
+      </c>
+      <c r="G70">
+        <v>1000</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1083</v>
+      </c>
+      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E71">
+        <v>10020</v>
+      </c>
+      <c r="F71" t="s">
+        <v>183</v>
+      </c>
+      <c r="G71">
+        <v>1000</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1084</v>
+      </c>
+      <c r="B72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72">
+        <v>10021</v>
+      </c>
+      <c r="F72" t="s">
+        <v>184</v>
+      </c>
+      <c r="G72">
+        <v>1000</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1085</v>
+      </c>
+      <c r="B73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73">
+        <v>10022</v>
+      </c>
+      <c r="F73" t="s">
+        <v>185</v>
+      </c>
+      <c r="G73">
+        <v>1000</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1086</v>
+      </c>
+      <c r="B74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74">
+        <v>10023</v>
+      </c>
+      <c r="F74" t="s">
+        <v>186</v>
+      </c>
+      <c r="G74">
+        <v>1000</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1091</v>
+      </c>
+      <c r="B75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E75">
+        <v>10018</v>
+      </c>
+      <c r="F75" t="s">
+        <v>187</v>
+      </c>
+      <c r="G75">
+        <v>1000</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1092</v>
+      </c>
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76">
+        <v>10019</v>
+      </c>
+      <c r="F76" t="s">
+        <v>188</v>
+      </c>
+      <c r="G76">
+        <v>1000</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1093</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E77">
+        <v>10020</v>
+      </c>
+      <c r="F77" t="s">
+        <v>128</v>
+      </c>
+      <c r="G77">
+        <v>1000</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1094</v>
+      </c>
+      <c r="B78" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E78">
+        <v>10021</v>
+      </c>
+      <c r="F78" t="s">
+        <v>189</v>
+      </c>
+      <c r="G78">
+        <v>1000</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1095</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E79">
+        <v>10022</v>
+      </c>
+      <c r="F79" t="s">
+        <v>190</v>
+      </c>
+      <c r="G79">
+        <v>1000</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1096</v>
+      </c>
+      <c r="B80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E80">
+        <v>10023</v>
+      </c>
+      <c r="F80" t="s">
+        <v>191</v>
+      </c>
+      <c r="G80">
+        <v>1000</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1101</v>
+      </c>
+      <c r="B81" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E81">
+        <v>10018</v>
+      </c>
+      <c r="F81" t="s">
+        <v>192</v>
+      </c>
+      <c r="G81">
+        <v>1000</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1102</v>
+      </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E82">
+        <v>10019</v>
+      </c>
+      <c r="F82" t="s">
+        <v>193</v>
+      </c>
+      <c r="G82">
+        <v>1000</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1103</v>
+      </c>
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E83">
+        <v>10020</v>
+      </c>
+      <c r="F83" t="s">
+        <v>194</v>
+      </c>
+      <c r="G83">
+        <v>1000</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1104</v>
+      </c>
+      <c r="B84" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E84">
+        <v>10021</v>
+      </c>
+      <c r="F84" t="s">
+        <v>195</v>
+      </c>
+      <c r="G84">
+        <v>1000</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1105</v>
+      </c>
+      <c r="B85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E85">
+        <v>10022</v>
+      </c>
+      <c r="F85" t="s">
+        <v>196</v>
+      </c>
+      <c r="G85">
+        <v>1000</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1106</v>
+      </c>
+      <c r="B86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E86">
+        <v>10023</v>
+      </c>
+      <c r="F86" t="s">
+        <v>197</v>
+      </c>
+      <c r="G86">
+        <v>1000</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1111</v>
+      </c>
+      <c r="B87" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E87">
+        <v>10018</v>
+      </c>
+      <c r="F87" t="s">
+        <v>198</v>
+      </c>
+      <c r="G87">
+        <v>1000</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1112</v>
+      </c>
+      <c r="B88" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E88">
+        <v>10019</v>
+      </c>
+      <c r="F88" t="s">
+        <v>199</v>
+      </c>
+      <c r="G88">
+        <v>1000</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1113</v>
+      </c>
+      <c r="B89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E89">
+        <v>10020</v>
+      </c>
+      <c r="F89" t="s">
+        <v>200</v>
+      </c>
+      <c r="G89">
+        <v>1000</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1114</v>
+      </c>
+      <c r="B90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E90">
+        <v>10021</v>
+      </c>
+      <c r="F90" t="s">
+        <v>201</v>
+      </c>
+      <c r="G90">
+        <v>1000</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1115</v>
+      </c>
+      <c r="B91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E91">
+        <v>10022</v>
+      </c>
+      <c r="F91" t="s">
+        <v>202</v>
+      </c>
+      <c r="G91">
+        <v>1000</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1116</v>
+      </c>
+      <c r="B92" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E92">
+        <v>10023</v>
+      </c>
+      <c r="F92" t="s">
+        <v>203</v>
+      </c>
+      <c r="G92">
+        <v>1000</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>2001</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C93" t="s">
+        <v>41</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G93">
+        <v>2000</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2002</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" t="s">
+        <v>41</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G94">
+        <v>2000</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2003</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C95" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G95">
+        <v>2000</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>2004</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C96" t="s">
+        <v>41</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G96">
+        <v>2000</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>2005</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C97" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G97">
+        <v>2000</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>2006</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G98">
+        <v>2000</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2007</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G99">
+        <v>2000</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>2008</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G100">
+        <v>2000</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>2009</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C101" t="s">
+        <v>41</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G101">
+        <v>2000</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>2010</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G102">
+        <v>2000</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>2011</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C103" t="s">
+        <v>41</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G103">
+        <v>2000</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>2012</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C104" t="s">
+        <v>41</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G104">
+        <v>2000</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>2013</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C105" t="s">
+        <v>41</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G105">
+        <v>2000</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>2014</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C106" t="s">
+        <v>41</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G106">
+        <v>2000</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>2015</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C107" t="s">
+        <v>41</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G107">
+        <v>2000</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>2016</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C108" t="s">
+        <v>41</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G108">
+        <v>2000</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>3001</v>
+      </c>
+      <c r="B109" t="s">
         <v>40</v>
       </c>
-      <c r="G26">
-        <v>1000</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="C109" t="s">
+        <v>41</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>40</v>
+      </c>
+      <c r="G109">
         <v>2001</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>3002</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C110" t="s">
+        <v>41</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27">
-        <v>2000</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2002</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="F110" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28">
-        <v>2000</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2003</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29">
-        <v>2000</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2004</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="G110">
+        <v>2001</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>3003</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" t="s">
+        <v>41</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G111">
+        <v>2001</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>3004</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30">
-        <v>2000</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2005</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C112" t="s">
+        <v>41</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G112">
+        <v>2001</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>3005</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113" t="s">
+        <v>41</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G113">
+        <v>2001</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>3006</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31">
-        <v>2000</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2006</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="F114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G114">
+        <v>2001</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>3007</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115" t="s">
+        <v>41</v>
+      </c>
+      <c r="D115" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G32">
-        <v>2000</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2007</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="F115" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G115">
+        <v>2001</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>3008</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C116" t="s">
+        <v>41</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33">
-        <v>2000</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2008</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="F116" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G116">
+        <v>2001</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>3009</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C117" t="s">
+        <v>41</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34">
-        <v>2000</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2009</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="F117" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G117">
+        <v>2001</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>3010</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C118" t="s">
+        <v>41</v>
+      </c>
+      <c r="D118" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G35">
-        <v>2000</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2010</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="F118" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G118">
+        <v>2001</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>3011</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C119" t="s">
+        <v>41</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36">
-        <v>2000</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2011</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="F119" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G119">
+        <v>2001</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>3012</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" t="s">
+        <v>41</v>
+      </c>
+      <c r="D120" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37">
-        <v>2000</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2012</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="F120" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G120">
+        <v>2001</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>3013</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C121" t="s">
+        <v>41</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38">
-        <v>2000</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2013</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="F121" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G121">
+        <v>2001</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>3014</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C122" t="s">
+        <v>41</v>
+      </c>
+      <c r="D122" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G39">
-        <v>2000</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2014</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="F122" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G122">
+        <v>2001</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>3015</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C123" t="s">
+        <v>41</v>
+      </c>
+      <c r="D123" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40">
-        <v>2000</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>2015</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="F123" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G123">
+        <v>2001</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>3016</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C124" t="s">
+        <v>41</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G41">
-        <v>2000</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2016</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G42">
-        <v>2000</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>3001</v>
-      </c>
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" t="s">
-        <v>41</v>
-      </c>
-      <c r="G43">
+      <c r="F124" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G124">
         <v>2001</v>
       </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>3002</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44">
-        <v>2001</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>3003</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45">
-        <v>2001</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>3004</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46">
-        <v>2001</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>3005</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47">
-        <v>2001</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>3006</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G48">
-        <v>2001</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>3007</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G49">
-        <v>2001</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>3008</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50">
-        <v>2001</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>3009</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G51">
-        <v>2001</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>3010</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G52">
-        <v>2001</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>3011</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G53">
-        <v>2001</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>3012</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54">
-        <v>2001</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>3013</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55">
-        <v>2001</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>3014</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G56">
-        <v>2001</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>3015</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G57">
-        <v>2001</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>3016</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G58">
-        <v>2001</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>120</v>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9451DA87-0F5B-4D04-8CAA-A81E911BAD84}">
+  <dimension ref="A1:C66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="str">
+        <f>_xlfn.CONCAT(A1,B1)</f>
+        <v>风暴剑</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C65" si="0">_xlfn.CONCAT(A2,B2)</f>
+        <v>风暴盔</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>风暴战甲</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>风暴裤</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>风暴战靴</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>风暴之戒</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>龙骨剑</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>龙骨盔</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>龙骨战甲</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>龙骨裤</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>龙骨战靴</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>龙骨之戒</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>丛云剑</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>丛云盔</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>丛云战甲</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>丛云裤</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>丛云战靴</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>丛云之戒</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>勇士剑</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>勇士盔</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>勇士战甲</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>勇士裤</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>勇士战靴</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>勇士之戒</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>圣骑剑</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>圣骑盔</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>圣骑战甲</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>圣骑裤</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>圣骑战靴</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>圣骑之戒</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>吟游剑</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>吟游盔</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>吟游战甲</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>吟游裤</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>吟游战靴</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>吟游之戒</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>狩魂剑</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>狩魂盔</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>狩魂战甲</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>狩魂裤</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>狩魂战靴</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>狩魂之戒</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>炎魔剑</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>炎魔盔</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>炎魔战甲</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>炎魔裤</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>炎魔战靴</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>炎魔之戒</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>血怒剑</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>血怒盔</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>血怒战甲</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>血怒裤</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>血怒战靴</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>血怒之戒</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>死神剑</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>死神盔</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>死神战甲</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>死神裤</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>死神战靴</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>死神之戒</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>王者剑</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>王者盔</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>王者战甲</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>王者裤</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>王者战靴</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ref="C66" si="1">_xlfn.CONCAT(A66,B66)</f>
+        <v>王者之戒</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2363,17 +5373,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2381,17 +5391,17 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2401,13 +5411,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2419,13 +5429,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/src/goods.xlsx
+++ b/src/goods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5E8D5A-C501-4968-A207-F393352271EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257C13AE-F502-4AF4-AA66-5EA116D14731}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19050" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="222">
   <si>
     <t>ID</t>
   </si>
@@ -773,6 +773,50 @@
   </si>
   <si>
     <t>风暴之戒</t>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无描述,待考证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1122,53 +1166,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.625" customWidth="1"/>
-    <col min="2" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="10.25" customWidth="1"/>
+    <col min="2" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="2" customWidth="1"/>
+    <col min="7" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1176,28 +1226,34 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1205,3348 +1261,4080 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>10001</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>10002</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>10003</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>10004</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>19</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>100</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>10005</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>20</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>100</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>102</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>10006</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>21</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>100</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>103</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>10007</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>22</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>100</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>104</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>10008</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>23</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>100</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>105</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>10009</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>24</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>100</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>106</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>10010</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>25</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>100</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>107</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>10011</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>26</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>101</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>108</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>10012</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>27</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>101</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>109</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>10013</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>28</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>101</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>110</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>10014</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>29</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>101</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>111</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>10015</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>30</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>101</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>112</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>10016</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>31</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>101</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>113</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>10017</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>32</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>101</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1001</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>10018</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G21">
-        <v>1000</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>1000</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1002</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>10019</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G22">
-        <v>1000</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>1000</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1003</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>10020</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G23">
-        <v>1000</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>1000</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1004</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>10021</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G24">
-        <v>1000</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>1000</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1005</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>10022</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G25">
-        <v>1000</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>1000</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1006</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
       </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>10023</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G26">
-        <v>1000</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>1000</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1011</v>
       </c>
       <c r="B27" t="s">
         <v>120</v>
       </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>10018</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>205</v>
       </c>
-      <c r="G27">
-        <v>1000</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>1000</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1012</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>10019</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>206</v>
       </c>
-      <c r="G28">
-        <v>1000</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>1000</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1013</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>10020</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G29">
-        <v>1000</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>1000</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1014</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>10021</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G30">
-        <v>1000</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>1000</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1015</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
       </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>10022</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>209</v>
       </c>
-      <c r="G31">
-        <v>1000</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>1000</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1016</v>
       </c>
       <c r="B32" t="s">
         <v>39</v>
       </c>
-      <c r="C32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>10023</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>210</v>
       </c>
-      <c r="G32">
-        <v>1000</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>1000</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1021</v>
       </c>
       <c r="B33" t="s">
         <v>120</v>
       </c>
-      <c r="C33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>10018</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>146</v>
       </c>
-      <c r="G33">
-        <v>1000</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>1000</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1022</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>10019</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>147</v>
       </c>
-      <c r="G34">
-        <v>1000</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>1000</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1023</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>10020</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>148</v>
       </c>
-      <c r="G35">
-        <v>1000</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>1000</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1024</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="C36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>10021</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
         <v>149</v>
       </c>
-      <c r="G36">
-        <v>1000</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>1000</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1025</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="C37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="C37" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>10022</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37" t="s">
         <v>150</v>
       </c>
-      <c r="G37">
-        <v>1000</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>1000</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1026</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
-      <c r="C38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="C38" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>10023</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
         <v>151</v>
       </c>
-      <c r="G38">
-        <v>1000</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>1000</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1031</v>
       </c>
       <c r="B39" t="s">
         <v>120</v>
       </c>
-      <c r="C39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>10018</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
         <v>152</v>
       </c>
-      <c r="G39">
-        <v>1000</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>1000</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1032</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
       </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>10019</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
         <v>153</v>
       </c>
-      <c r="G40">
-        <v>1000</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>1000</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1033</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
       </c>
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="4" t="s">
+      <c r="C41" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>10020</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
         <v>154</v>
       </c>
-      <c r="G41">
-        <v>1000</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>1000</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1034</v>
       </c>
       <c r="B42" t="s">
         <v>37</v>
       </c>
-      <c r="C42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="C42" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>10021</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>155</v>
       </c>
-      <c r="G42">
-        <v>1000</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>1000</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1035</v>
       </c>
       <c r="B43" t="s">
         <v>38</v>
       </c>
-      <c r="C43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="C43" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>10022</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
         <v>156</v>
       </c>
-      <c r="G43">
-        <v>1000</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>1000</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1036</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
       </c>
-      <c r="C44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="C44" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>10023</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
         <v>157</v>
       </c>
-      <c r="G44">
-        <v>1000</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>1000</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1041</v>
       </c>
       <c r="B45" t="s">
         <v>120</v>
       </c>
-      <c r="C45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="4" t="s">
+      <c r="C45" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>10018</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
         <v>158</v>
       </c>
-      <c r="G45">
-        <v>1000</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>1000</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1042</v>
       </c>
       <c r="B46" t="s">
         <v>35</v>
       </c>
-      <c r="C46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="C46" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>10019</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
         <v>159</v>
       </c>
-      <c r="G46">
-        <v>1000</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>1000</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1043</v>
       </c>
       <c r="B47" t="s">
         <v>36</v>
       </c>
-      <c r="C47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="4" t="s">
+      <c r="C47" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E47">
+      <c r="G47">
         <v>10020</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H47" t="s">
         <v>160</v>
       </c>
-      <c r="G47">
-        <v>1000</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>1000</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1044</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
       </c>
-      <c r="C48" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="C48" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E48">
+      <c r="G48">
         <v>10021</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>161</v>
       </c>
-      <c r="G48">
-        <v>1000</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>1000</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1045</v>
       </c>
       <c r="B49" t="s">
         <v>38</v>
       </c>
-      <c r="C49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="C49" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E49">
+      <c r="G49">
         <v>10022</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H49" t="s">
         <v>162</v>
       </c>
-      <c r="G49">
-        <v>1000</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>1000</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1046</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
       </c>
-      <c r="C50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="4" t="s">
+      <c r="C50" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>10023</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H50" t="s">
         <v>163</v>
       </c>
-      <c r="G50">
-        <v>1000</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>1000</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1051</v>
       </c>
       <c r="B51" t="s">
         <v>120</v>
       </c>
-      <c r="C51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="C51" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>10018</v>
       </c>
-      <c r="F51" t="s">
+      <c r="H51" t="s">
         <v>164</v>
       </c>
-      <c r="G51">
-        <v>1000</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>1000</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1052</v>
       </c>
       <c r="B52" t="s">
         <v>35</v>
       </c>
-      <c r="C52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="4" t="s">
+      <c r="C52" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>10019</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
         <v>165</v>
       </c>
-      <c r="G52">
-        <v>1000</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>1000</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1053</v>
       </c>
       <c r="B53" t="s">
         <v>36</v>
       </c>
-      <c r="C53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="4" t="s">
+      <c r="C53" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E53">
+      <c r="G53">
         <v>10020</v>
       </c>
-      <c r="F53" t="s">
+      <c r="H53" t="s">
         <v>129</v>
       </c>
-      <c r="G53">
-        <v>1000</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>1000</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1054</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
       </c>
-      <c r="C54" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="C54" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E54" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>10021</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" t="s">
         <v>166</v>
       </c>
-      <c r="G54">
-        <v>1000</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>1000</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1055</v>
       </c>
       <c r="B55" t="s">
         <v>38</v>
       </c>
-      <c r="C55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="4" t="s">
+      <c r="C55" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <v>10022</v>
       </c>
-      <c r="F55" t="s">
+      <c r="H55" t="s">
         <v>167</v>
       </c>
-      <c r="G55">
-        <v>1000</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>1000</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1056</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
       </c>
-      <c r="C56" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="4" t="s">
+      <c r="C56" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E56" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E56">
+      <c r="G56">
         <v>10023</v>
       </c>
-      <c r="F56" t="s">
+      <c r="H56" t="s">
         <v>168</v>
       </c>
-      <c r="G56">
-        <v>1000</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>1000</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1061</v>
       </c>
       <c r="B57" t="s">
         <v>120</v>
       </c>
-      <c r="C57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="4" t="s">
+      <c r="C57" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E57">
+      <c r="G57">
         <v>10018</v>
       </c>
-      <c r="F57" t="s">
+      <c r="H57" t="s">
         <v>169</v>
       </c>
-      <c r="G57">
-        <v>1000</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>1000</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1062</v>
       </c>
       <c r="B58" t="s">
         <v>35</v>
       </c>
-      <c r="C58" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="4" t="s">
+      <c r="C58" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E58" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E58">
+      <c r="G58">
         <v>10019</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
         <v>170</v>
       </c>
-      <c r="G58">
-        <v>1000</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>1000</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1063</v>
       </c>
       <c r="B59" t="s">
         <v>36</v>
       </c>
-      <c r="C59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="4" t="s">
+      <c r="C59" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E59">
+      <c r="G59">
         <v>10020</v>
       </c>
-      <c r="F59" t="s">
+      <c r="H59" t="s">
         <v>171</v>
       </c>
-      <c r="G59">
-        <v>1000</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>1000</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1064</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
       </c>
-      <c r="C60" t="s">
-        <v>33</v>
-      </c>
-      <c r="D60" s="4" t="s">
+      <c r="C60" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E60">
+      <c r="G60">
         <v>10021</v>
       </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
         <v>172</v>
       </c>
-      <c r="G60">
-        <v>1000</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>1000</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1065</v>
       </c>
       <c r="B61" t="s">
         <v>38</v>
       </c>
-      <c r="C61" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61" s="4" t="s">
+      <c r="C61" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E61" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E61">
+      <c r="G61">
         <v>10022</v>
       </c>
-      <c r="F61" t="s">
+      <c r="H61" t="s">
         <v>173</v>
       </c>
-      <c r="G61">
-        <v>1000</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <v>1000</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1066</v>
       </c>
       <c r="B62" t="s">
         <v>39</v>
       </c>
-      <c r="C62" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="4" t="s">
+      <c r="C62" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E62" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E62">
+      <c r="G62">
         <v>10023</v>
       </c>
-      <c r="F62" t="s">
+      <c r="H62" t="s">
         <v>174</v>
       </c>
-      <c r="G62">
-        <v>1000</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <v>1000</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1071</v>
       </c>
       <c r="B63" t="s">
         <v>120</v>
       </c>
-      <c r="C63" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" s="4" t="s">
+      <c r="C63" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E63">
+      <c r="G63">
         <v>10018</v>
       </c>
-      <c r="F63" t="s">
+      <c r="H63" t="s">
         <v>175</v>
       </c>
-      <c r="G63">
-        <v>1000</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>1000</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1072</v>
       </c>
       <c r="B64" t="s">
         <v>35</v>
       </c>
-      <c r="C64" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="C64" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E64">
+      <c r="G64">
         <v>10019</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
         <v>176</v>
       </c>
-      <c r="G64">
-        <v>1000</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <v>1000</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1073</v>
       </c>
       <c r="B65" t="s">
         <v>36</v>
       </c>
-      <c r="C65" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="4" t="s">
+      <c r="C65" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E65" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E65">
+      <c r="G65">
         <v>10020</v>
       </c>
-      <c r="F65" t="s">
+      <c r="H65" t="s">
         <v>177</v>
       </c>
-      <c r="G65">
-        <v>1000</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <v>1000</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1074</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
       </c>
-      <c r="C66" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="4" t="s">
+      <c r="C66" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E66">
+      <c r="G66">
         <v>10021</v>
       </c>
-      <c r="F66" t="s">
+      <c r="H66" t="s">
         <v>178</v>
       </c>
-      <c r="G66">
-        <v>1000</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <v>1000</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1075</v>
       </c>
       <c r="B67" t="s">
         <v>38</v>
       </c>
-      <c r="C67" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="4" t="s">
+      <c r="C67" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E67" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E67">
+      <c r="G67">
         <v>10022</v>
       </c>
-      <c r="F67" t="s">
+      <c r="H67" t="s">
         <v>179</v>
       </c>
-      <c r="G67">
-        <v>1000</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <v>1000</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1076</v>
       </c>
       <c r="B68" t="s">
         <v>39</v>
       </c>
-      <c r="C68" t="s">
-        <v>33</v>
-      </c>
-      <c r="D68" s="4" t="s">
+      <c r="C68" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E68">
+      <c r="G68">
         <v>10023</v>
       </c>
-      <c r="F68" t="s">
+      <c r="H68" t="s">
         <v>180</v>
       </c>
-      <c r="G68">
-        <v>1000</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>1000</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1081</v>
       </c>
       <c r="B69" t="s">
         <v>120</v>
       </c>
-      <c r="C69" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="4" t="s">
+      <c r="C69" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E69" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E69">
+      <c r="G69">
         <v>10018</v>
       </c>
-      <c r="F69" t="s">
+      <c r="H69" t="s">
         <v>181</v>
       </c>
-      <c r="G69">
-        <v>1000</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <v>1000</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1082</v>
       </c>
       <c r="B70" t="s">
         <v>35</v>
       </c>
-      <c r="C70" t="s">
-        <v>33</v>
-      </c>
-      <c r="D70" s="4" t="s">
+      <c r="C70" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E70">
+      <c r="G70">
         <v>10019</v>
       </c>
-      <c r="F70" t="s">
+      <c r="H70" t="s">
         <v>182</v>
       </c>
-      <c r="G70">
-        <v>1000</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <v>1000</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1083</v>
       </c>
       <c r="B71" t="s">
         <v>36</v>
       </c>
-      <c r="C71" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="4" t="s">
+      <c r="C71" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E71" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E71">
+      <c r="G71">
         <v>10020</v>
       </c>
-      <c r="F71" t="s">
+      <c r="H71" t="s">
         <v>183</v>
       </c>
-      <c r="G71">
-        <v>1000</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <v>1000</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1084</v>
       </c>
       <c r="B72" t="s">
         <v>37</v>
       </c>
-      <c r="C72" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="C72" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E72" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E72">
+      <c r="G72">
         <v>10021</v>
       </c>
-      <c r="F72" t="s">
+      <c r="H72" t="s">
         <v>184</v>
       </c>
-      <c r="G72">
-        <v>1000</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <v>1000</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1085</v>
       </c>
       <c r="B73" t="s">
         <v>38</v>
       </c>
-      <c r="C73" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" s="4" t="s">
+      <c r="C73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E73" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E73">
+      <c r="G73">
         <v>10022</v>
       </c>
-      <c r="F73" t="s">
+      <c r="H73" t="s">
         <v>185</v>
       </c>
-      <c r="G73">
-        <v>1000</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <v>1000</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1086</v>
       </c>
       <c r="B74" t="s">
         <v>39</v>
       </c>
-      <c r="C74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" s="4" t="s">
+      <c r="C74" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E74" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E74">
+      <c r="G74">
         <v>10023</v>
       </c>
-      <c r="F74" t="s">
+      <c r="H74" t="s">
         <v>186</v>
       </c>
-      <c r="G74">
-        <v>1000</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <v>1000</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1091</v>
       </c>
       <c r="B75" t="s">
         <v>120</v>
       </c>
-      <c r="C75" t="s">
-        <v>33</v>
-      </c>
-      <c r="D75" s="4" t="s">
+      <c r="C75" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E75">
+      <c r="G75">
         <v>10018</v>
       </c>
-      <c r="F75" t="s">
+      <c r="H75" t="s">
         <v>187</v>
       </c>
-      <c r="G75">
-        <v>1000</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <v>1000</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1092</v>
       </c>
       <c r="B76" t="s">
         <v>35</v>
       </c>
-      <c r="C76" t="s">
-        <v>33</v>
-      </c>
-      <c r="D76" s="4" t="s">
+      <c r="C76" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E76">
+      <c r="G76">
         <v>10019</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H76" t="s">
         <v>188</v>
       </c>
-      <c r="G76">
-        <v>1000</v>
-      </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-      <c r="I76" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <v>1000</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1093</v>
       </c>
       <c r="B77" t="s">
         <v>36</v>
       </c>
-      <c r="C77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" s="4" t="s">
+      <c r="C77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E77" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E77">
+      <c r="G77">
         <v>10020</v>
       </c>
-      <c r="F77" t="s">
+      <c r="H77" t="s">
         <v>128</v>
       </c>
-      <c r="G77">
-        <v>1000</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <v>1000</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1094</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
       </c>
-      <c r="C78" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" s="4" t="s">
+      <c r="C78" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E78" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E78">
+      <c r="G78">
         <v>10021</v>
       </c>
-      <c r="F78" t="s">
+      <c r="H78" t="s">
         <v>189</v>
       </c>
-      <c r="G78">
-        <v>1000</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <v>1000</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1095</v>
       </c>
       <c r="B79" t="s">
         <v>38</v>
       </c>
-      <c r="C79" t="s">
-        <v>33</v>
-      </c>
-      <c r="D79" s="4" t="s">
+      <c r="C79" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E79" t="s">
+        <v>33</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E79">
+      <c r="G79">
         <v>10022</v>
       </c>
-      <c r="F79" t="s">
+      <c r="H79" t="s">
         <v>190</v>
       </c>
-      <c r="G79">
-        <v>1000</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <v>1000</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1096</v>
       </c>
       <c r="B80" t="s">
         <v>39</v>
       </c>
-      <c r="C80" t="s">
-        <v>33</v>
-      </c>
-      <c r="D80" s="4" t="s">
+      <c r="C80" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E80" t="s">
+        <v>33</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E80">
+      <c r="G80">
         <v>10023</v>
       </c>
-      <c r="F80" t="s">
+      <c r="H80" t="s">
         <v>191</v>
       </c>
-      <c r="G80">
-        <v>1000</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <v>1000</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1101</v>
       </c>
       <c r="B81" t="s">
         <v>120</v>
       </c>
-      <c r="C81" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" s="4" t="s">
+      <c r="C81" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E81" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E81">
+      <c r="G81">
         <v>10018</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H81" t="s">
         <v>192</v>
       </c>
-      <c r="G81">
-        <v>1000</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <v>1000</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1102</v>
       </c>
       <c r="B82" t="s">
         <v>35</v>
       </c>
-      <c r="C82" t="s">
-        <v>33</v>
-      </c>
-      <c r="D82" s="4" t="s">
+      <c r="C82" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E82" t="s">
+        <v>33</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E82">
+      <c r="G82">
         <v>10019</v>
       </c>
-      <c r="F82" t="s">
+      <c r="H82" t="s">
         <v>193</v>
       </c>
-      <c r="G82">
-        <v>1000</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="I82" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <v>1000</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1103</v>
       </c>
       <c r="B83" t="s">
         <v>36</v>
       </c>
-      <c r="C83" t="s">
-        <v>33</v>
-      </c>
-      <c r="D83" s="4" t="s">
+      <c r="C83" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E83" t="s">
+        <v>33</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E83">
+      <c r="G83">
         <v>10020</v>
       </c>
-      <c r="F83" t="s">
+      <c r="H83" t="s">
         <v>194</v>
       </c>
-      <c r="G83">
-        <v>1000</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <v>1000</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1104</v>
       </c>
       <c r="B84" t="s">
         <v>37</v>
       </c>
-      <c r="C84" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84" s="4" t="s">
+      <c r="C84" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E84" t="s">
+        <v>33</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E84">
+      <c r="G84">
         <v>10021</v>
       </c>
-      <c r="F84" t="s">
+      <c r="H84" t="s">
         <v>195</v>
       </c>
-      <c r="G84">
-        <v>1000</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <v>1000</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1105</v>
       </c>
       <c r="B85" t="s">
         <v>38</v>
       </c>
-      <c r="C85" t="s">
-        <v>33</v>
-      </c>
-      <c r="D85" s="4" t="s">
+      <c r="C85" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E85" t="s">
+        <v>33</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E85">
+      <c r="G85">
         <v>10022</v>
       </c>
-      <c r="F85" t="s">
+      <c r="H85" t="s">
         <v>196</v>
       </c>
-      <c r="G85">
-        <v>1000</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <v>1000</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1106</v>
       </c>
       <c r="B86" t="s">
         <v>39</v>
       </c>
-      <c r="C86" t="s">
-        <v>33</v>
-      </c>
-      <c r="D86" s="4" t="s">
+      <c r="C86" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E86" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E86">
+      <c r="G86">
         <v>10023</v>
       </c>
-      <c r="F86" t="s">
+      <c r="H86" t="s">
         <v>197</v>
       </c>
-      <c r="G86">
-        <v>1000</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <v>1000</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1111</v>
       </c>
       <c r="B87" t="s">
         <v>120</v>
       </c>
-      <c r="C87" t="s">
-        <v>33</v>
-      </c>
-      <c r="D87" s="4" t="s">
+      <c r="C87" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E87" t="s">
+        <v>33</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E87">
+      <c r="G87">
         <v>10018</v>
       </c>
-      <c r="F87" t="s">
+      <c r="H87" t="s">
         <v>198</v>
       </c>
-      <c r="G87">
-        <v>1000</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <v>1000</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1112</v>
       </c>
       <c r="B88" t="s">
         <v>35</v>
       </c>
-      <c r="C88" t="s">
-        <v>33</v>
-      </c>
-      <c r="D88" s="4" t="s">
+      <c r="C88" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E88" t="s">
+        <v>33</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E88">
+      <c r="G88">
         <v>10019</v>
       </c>
-      <c r="F88" t="s">
+      <c r="H88" t="s">
         <v>199</v>
       </c>
-      <c r="G88">
-        <v>1000</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <v>1000</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1113</v>
       </c>
       <c r="B89" t="s">
         <v>36</v>
       </c>
-      <c r="C89" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" s="4" t="s">
+      <c r="C89" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E89" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E89">
+      <c r="G89">
         <v>10020</v>
       </c>
-      <c r="F89" t="s">
+      <c r="H89" t="s">
         <v>200</v>
       </c>
-      <c r="G89">
-        <v>1000</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <v>1000</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1114</v>
       </c>
       <c r="B90" t="s">
         <v>37</v>
       </c>
-      <c r="C90" t="s">
-        <v>33</v>
-      </c>
-      <c r="D90" s="4" t="s">
+      <c r="C90" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E90" t="s">
+        <v>33</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E90">
+      <c r="G90">
         <v>10021</v>
       </c>
-      <c r="F90" t="s">
+      <c r="H90" t="s">
         <v>201</v>
       </c>
-      <c r="G90">
-        <v>1000</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <v>1000</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1115</v>
       </c>
       <c r="B91" t="s">
         <v>38</v>
       </c>
-      <c r="C91" t="s">
-        <v>33</v>
-      </c>
-      <c r="D91" s="4" t="s">
+      <c r="C91" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E91" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E91">
+      <c r="G91">
         <v>10022</v>
       </c>
-      <c r="F91" t="s">
+      <c r="H91" t="s">
         <v>202</v>
       </c>
-      <c r="G91">
-        <v>1000</v>
-      </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-      <c r="I91" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <v>1000</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1116</v>
       </c>
       <c r="B92" t="s">
         <v>39</v>
       </c>
-      <c r="C92" t="s">
-        <v>33</v>
-      </c>
-      <c r="D92" s="4" t="s">
+      <c r="C92" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E92">
+      <c r="G92">
         <v>10023</v>
       </c>
-      <c r="F92" t="s">
+      <c r="H92" t="s">
         <v>203</v>
       </c>
-      <c r="G92">
-        <v>1000</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <v>1000</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2001</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E93" t="s">
         <v>41</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="F93" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="H93" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G93">
+      <c r="I93">
         <v>2000</v>
       </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2002</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E94" t="s">
         <v>41</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="F94" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G94">
+      <c r="I94">
         <v>2000</v>
       </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2003</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E95" t="s">
         <v>41</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="F95" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G95">
+      <c r="I95">
         <v>2000</v>
       </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2004</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E96" t="s">
         <v>41</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="F96" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G96">
+      <c r="I96">
         <v>2000</v>
       </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2005</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E97" t="s">
         <v>41</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="F97" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G97">
+      <c r="I97">
         <v>2000</v>
       </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2006</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E98" t="s">
         <v>41</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="F98" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="H98" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G98">
+      <c r="I98">
         <v>2000</v>
       </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2007</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E99" t="s">
         <v>41</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="F99" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G99">
+      <c r="I99">
         <v>2000</v>
       </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2008</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E100" t="s">
         <v>41</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="F100" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G100">
+      <c r="I100">
         <v>2000</v>
       </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-      <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2009</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E101" t="s">
         <v>41</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="F101" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G101">
+      <c r="I101">
         <v>2000</v>
       </c>
-      <c r="H101">
-        <v>1</v>
-      </c>
-      <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2010</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E102" t="s">
         <v>41</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="F102" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="H102" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G102">
+      <c r="I102">
         <v>2000</v>
       </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
-      <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2011</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E103" t="s">
         <v>41</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="F103" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G103">
+      <c r="I103">
         <v>2000</v>
       </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2012</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E104" t="s">
         <v>41</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="F104" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G104">
+      <c r="I104">
         <v>2000</v>
       </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
-      <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2013</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E105" t="s">
         <v>41</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="F105" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="H105" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G105">
+      <c r="I105">
         <v>2000</v>
       </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2014</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E106" t="s">
         <v>41</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="F106" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G106">
+      <c r="I106">
         <v>2000</v>
       </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
-      <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2015</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E107" t="s">
         <v>41</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="F107" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="H107" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G107">
+      <c r="I107">
         <v>2000</v>
       </c>
-      <c r="H107">
-        <v>1</v>
-      </c>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2016</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" t="s">
         <v>41</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="F108" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="H108" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G108">
+      <c r="I108">
         <v>2000</v>
       </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-      <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>3001</v>
       </c>
       <c r="B109" t="s">
         <v>40</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E109" t="s">
         <v>41</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="F109" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F109" t="s">
+      <c r="H109" t="s">
         <v>40</v>
       </c>
-      <c r="G109">
+      <c r="I109">
         <v>2001</v>
       </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
-      <c r="I109" s="1" t="s">
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>3002</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E110" t="s">
         <v>41</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="F110" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="H110" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G110">
+      <c r="I110">
         <v>2001</v>
       </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-      <c r="I110" s="1" t="s">
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>3003</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E111" t="s">
         <v>41</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="F111" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G111">
+      <c r="I111">
         <v>2001</v>
       </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-      <c r="I111" s="1" t="s">
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>3004</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E112" t="s">
         <v>41</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="F112" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="H112" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G112">
+      <c r="I112">
         <v>2001</v>
       </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="I112" s="1" t="s">
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>3005</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E113" t="s">
         <v>41</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="F113" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="H113" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G113">
+      <c r="I113">
         <v>2001</v>
       </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
-      <c r="I113" s="1" t="s">
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>3006</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E114" t="s">
         <v>41</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="F114" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="H114" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G114">
+      <c r="I114">
         <v>2001</v>
       </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="I114" s="1" t="s">
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>3007</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E115" t="s">
         <v>41</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="F115" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="H115" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G115">
+      <c r="I115">
         <v>2001</v>
       </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115" s="1" t="s">
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>3008</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E116" t="s">
         <v>41</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="F116" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="H116" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G116">
+      <c r="I116">
         <v>2001</v>
       </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116" s="1" t="s">
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3009</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E117" t="s">
         <v>41</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="F117" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="H117" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G117">
+      <c r="I117">
         <v>2001</v>
       </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-      <c r="I117" s="1" t="s">
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3010</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E118" t="s">
         <v>41</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="F118" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="H118" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G118">
+      <c r="I118">
         <v>2001</v>
       </c>
-      <c r="H118">
-        <v>1</v>
-      </c>
-      <c r="I118" s="1" t="s">
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>3011</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E119" t="s">
         <v>41</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="F119" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="H119" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G119">
+      <c r="I119">
         <v>2001</v>
       </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-      <c r="I119" s="1" t="s">
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3012</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E120" t="s">
         <v>41</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="F120" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="H120" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G120">
+      <c r="I120">
         <v>2001</v>
       </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
-      <c r="I120" s="1" t="s">
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>3013</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E121" t="s">
         <v>41</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="F121" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="H121" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G121">
+      <c r="I121">
         <v>2001</v>
       </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
-      <c r="I121" s="1" t="s">
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3014</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E122" t="s">
         <v>41</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="F122" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="H122" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G122">
+      <c r="I122">
         <v>2001</v>
       </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-      <c r="I122" s="1" t="s">
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>3015</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E123" t="s">
         <v>41</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="F123" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="H123" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G123">
+      <c r="I123">
         <v>2001</v>
       </c>
-      <c r="H123">
-        <v>1</v>
-      </c>
-      <c r="I123" s="1" t="s">
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3016</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E124" t="s">
         <v>41</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="F124" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="H124" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G124">
+      <c r="I124">
         <v>2001</v>
       </c>
-      <c r="H124">
-        <v>1</v>
-      </c>
-      <c r="I124" s="1" t="s">
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5366,16 +6154,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5387,14 +6173,16 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5405,13 +6193,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -5423,13 +6211,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/src/goods.xlsx
+++ b/src/goods.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20359"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257C13AE-F502-4AF4-AA66-5EA116D14731}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19050" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19056" windowHeight="12876"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -822,7 +821,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1165,25 +1164,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D124"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.625" customWidth="1"/>
-    <col min="2" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="2" customWidth="1"/>
-    <col min="7" max="8" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="21.44140625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +1252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1288,7 +1287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1317,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1346,7 +1345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1374,11 +1373,8 @@
       <c r="I6">
         <v>3</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
@@ -1410,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>101</v>
       </c>
@@ -1442,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>102</v>
       </c>
@@ -1474,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>103</v>
       </c>
@@ -1506,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>104</v>
       </c>
@@ -1538,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>105</v>
       </c>
@@ -1570,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>106</v>
       </c>
@@ -1602,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>107</v>
       </c>
@@ -1634,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>108</v>
       </c>
@@ -1666,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>109</v>
       </c>
@@ -1698,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>110</v>
       </c>
@@ -1730,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>111</v>
       </c>
@@ -1762,7 +1758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>112</v>
       </c>
@@ -1794,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>113</v>
       </c>
@@ -1826,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1001</v>
       </c>
@@ -1861,7 +1857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1002</v>
       </c>
@@ -1896,7 +1892,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1003</v>
       </c>
@@ -1931,7 +1927,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1004</v>
       </c>
@@ -1966,7 +1962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1005</v>
       </c>
@@ -2001,7 +1997,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1006</v>
       </c>
@@ -2036,7 +2032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1011</v>
       </c>
@@ -2071,7 +2067,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1012</v>
       </c>
@@ -2106,7 +2102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1013</v>
       </c>
@@ -2141,7 +2137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1014</v>
       </c>
@@ -2176,7 +2172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1015</v>
       </c>
@@ -2211,7 +2207,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1016</v>
       </c>
@@ -2246,7 +2242,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1021</v>
       </c>
@@ -2281,7 +2277,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1022</v>
       </c>
@@ -2316,7 +2312,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1023</v>
       </c>
@@ -2351,7 +2347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1024</v>
       </c>
@@ -2386,7 +2382,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1025</v>
       </c>
@@ -2421,7 +2417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1026</v>
       </c>
@@ -2456,7 +2452,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1031</v>
       </c>
@@ -2491,7 +2487,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1032</v>
       </c>
@@ -2526,7 +2522,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1033</v>
       </c>
@@ -2561,7 +2557,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1034</v>
       </c>
@@ -2596,7 +2592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1035</v>
       </c>
@@ -2631,7 +2627,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1036</v>
       </c>
@@ -2666,7 +2662,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1041</v>
       </c>
@@ -2701,7 +2697,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1042</v>
       </c>
@@ -2736,7 +2732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1043</v>
       </c>
@@ -2771,7 +2767,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1044</v>
       </c>
@@ -2806,7 +2802,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1045</v>
       </c>
@@ -2841,7 +2837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1046</v>
       </c>
@@ -2876,7 +2872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1051</v>
       </c>
@@ -2911,7 +2907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1052</v>
       </c>
@@ -2946,7 +2942,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1053</v>
       </c>
@@ -2981,7 +2977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1054</v>
       </c>
@@ -3016,7 +3012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1055</v>
       </c>
@@ -3051,7 +3047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1056</v>
       </c>
@@ -3086,7 +3082,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1061</v>
       </c>
@@ -3121,7 +3117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1062</v>
       </c>
@@ -3156,7 +3152,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1063</v>
       </c>
@@ -3191,7 +3187,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1064</v>
       </c>
@@ -3226,7 +3222,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1065</v>
       </c>
@@ -3261,7 +3257,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1066</v>
       </c>
@@ -3296,7 +3292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1071</v>
       </c>
@@ -3331,7 +3327,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1072</v>
       </c>
@@ -3366,7 +3362,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1073</v>
       </c>
@@ -3401,7 +3397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1074</v>
       </c>
@@ -3436,7 +3432,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1075</v>
       </c>
@@ -3471,7 +3467,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1076</v>
       </c>
@@ -3506,7 +3502,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1081</v>
       </c>
@@ -3541,7 +3537,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1082</v>
       </c>
@@ -3576,7 +3572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1083</v>
       </c>
@@ -3611,7 +3607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1084</v>
       </c>
@@ -3646,7 +3642,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1085</v>
       </c>
@@ -3681,7 +3677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1086</v>
       </c>
@@ -3716,7 +3712,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1091</v>
       </c>
@@ -3751,7 +3747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1092</v>
       </c>
@@ -3786,7 +3782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1093</v>
       </c>
@@ -3821,7 +3817,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1094</v>
       </c>
@@ -3856,7 +3852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1095</v>
       </c>
@@ -3891,7 +3887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1096</v>
       </c>
@@ -3926,7 +3922,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1101</v>
       </c>
@@ -3961,7 +3957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1102</v>
       </c>
@@ -3996,7 +3992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1103</v>
       </c>
@@ -4031,7 +4027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1104</v>
       </c>
@@ -4066,7 +4062,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1105</v>
       </c>
@@ -4101,7 +4097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1106</v>
       </c>
@@ -4136,7 +4132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1111</v>
       </c>
@@ -4171,7 +4167,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1112</v>
       </c>
@@ -4206,7 +4202,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1113</v>
       </c>
@@ -4241,7 +4237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1114</v>
       </c>
@@ -4276,7 +4272,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1115</v>
       </c>
@@ -4311,7 +4307,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1116</v>
       </c>
@@ -4346,7 +4342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2001</v>
       </c>
@@ -4376,7 +4372,7 @@
       </c>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2002</v>
       </c>
@@ -4406,7 +4402,7 @@
       </c>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2003</v>
       </c>
@@ -4436,7 +4432,7 @@
       </c>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2004</v>
       </c>
@@ -4466,7 +4462,7 @@
       </c>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2005</v>
       </c>
@@ -4496,7 +4492,7 @@
       </c>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2006</v>
       </c>
@@ -4526,7 +4522,7 @@
       </c>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2007</v>
       </c>
@@ -4556,7 +4552,7 @@
       </c>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2008</v>
       </c>
@@ -4586,7 +4582,7 @@
       </c>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2009</v>
       </c>
@@ -4616,7 +4612,7 @@
       </c>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2010</v>
       </c>
@@ -4646,7 +4642,7 @@
       </c>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2011</v>
       </c>
@@ -4676,7 +4672,7 @@
       </c>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2012</v>
       </c>
@@ -4706,7 +4702,7 @@
       </c>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2013</v>
       </c>
@@ -4736,7 +4732,7 @@
       </c>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2014</v>
       </c>
@@ -4766,7 +4762,7 @@
       </c>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2015</v>
       </c>
@@ -4796,7 +4792,7 @@
       </c>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2016</v>
       </c>
@@ -4826,7 +4822,7 @@
       </c>
       <c r="K108" s="1"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3001</v>
       </c>
@@ -4858,7 +4854,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3002</v>
       </c>
@@ -4890,7 +4886,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>3003</v>
       </c>
@@ -4922,7 +4918,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3004</v>
       </c>
@@ -4954,7 +4950,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3005</v>
       </c>
@@ -4986,7 +4982,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>3006</v>
       </c>
@@ -5018,7 +5014,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3007</v>
       </c>
@@ -5050,7 +5046,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3008</v>
       </c>
@@ -5082,7 +5078,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3009</v>
       </c>
@@ -5114,7 +5110,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>3010</v>
       </c>
@@ -5146,7 +5142,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>3011</v>
       </c>
@@ -5178,7 +5174,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3012</v>
       </c>
@@ -5210,7 +5206,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3013</v>
       </c>
@@ -5242,7 +5238,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3014</v>
       </c>
@@ -5274,7 +5270,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3015</v>
       </c>
@@ -5306,7 +5302,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3016</v>
       </c>
@@ -5346,16 +5342,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9451DA87-0F5B-4D04-8CAA-A81E911BAD84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>204</v>
       </c>
@@ -5367,7 +5363,7 @@
         <v>风暴剑</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>204</v>
       </c>
@@ -5379,7 +5375,7 @@
         <v>风暴盔</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>204</v>
       </c>
@@ -5391,7 +5387,7 @@
         <v>风暴战甲</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>204</v>
       </c>
@@ -5403,7 +5399,7 @@
         <v>风暴裤</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>204</v>
       </c>
@@ -5415,7 +5411,7 @@
         <v>风暴战靴</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>204</v>
       </c>
@@ -5427,7 +5423,7 @@
         <v>风暴之戒</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -5439,7 +5435,7 @@
         <v>龙骨剑</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -5451,7 +5447,7 @@
         <v>龙骨盔</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
       </c>
@@ -5463,7 +5459,7 @@
         <v>龙骨战甲</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -5475,7 +5471,7 @@
         <v>龙骨裤</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -5487,7 +5483,7 @@
         <v>龙骨战靴</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -5499,7 +5495,7 @@
         <v>龙骨之戒</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -5511,7 +5507,7 @@
         <v>丛云剑</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -5523,7 +5519,7 @@
         <v>丛云盔</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -5535,7 +5531,7 @@
         <v>丛云战甲</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -5547,7 +5543,7 @@
         <v>丛云裤</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -5559,7 +5555,7 @@
         <v>丛云战靴</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -5571,7 +5567,7 @@
         <v>丛云之戒</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>138</v>
       </c>
@@ -5583,7 +5579,7 @@
         <v>勇士剑</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -5595,7 +5591,7 @@
         <v>勇士盔</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -5607,7 +5603,7 @@
         <v>勇士战甲</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>138</v>
       </c>
@@ -5619,7 +5615,7 @@
         <v>勇士裤</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>138</v>
       </c>
@@ -5631,7 +5627,7 @@
         <v>勇士战靴</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -5643,7 +5639,7 @@
         <v>勇士之戒</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -5655,7 +5651,7 @@
         <v>圣骑剑</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -5667,7 +5663,7 @@
         <v>圣骑盔</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -5679,7 +5675,7 @@
         <v>圣骑战甲</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -5691,7 +5687,7 @@
         <v>圣骑裤</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -5703,7 +5699,7 @@
         <v>圣骑战靴</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -5715,7 +5711,7 @@
         <v>圣骑之戒</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -5727,7 +5723,7 @@
         <v>吟游剑</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>140</v>
       </c>
@@ -5739,7 +5735,7 @@
         <v>吟游盔</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -5751,7 +5747,7 @@
         <v>吟游战甲</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>140</v>
       </c>
@@ -5763,7 +5759,7 @@
         <v>吟游裤</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -5775,7 +5771,7 @@
         <v>吟游战靴</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -5787,7 +5783,7 @@
         <v>吟游之戒</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -5799,7 +5795,7 @@
         <v>狩魂剑</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>142</v>
       </c>
@@ -5811,7 +5807,7 @@
         <v>狩魂盔</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -5823,7 +5819,7 @@
         <v>狩魂战甲</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -5835,7 +5831,7 @@
         <v>狩魂裤</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>142</v>
       </c>
@@ -5847,7 +5843,7 @@
         <v>狩魂战靴</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>142</v>
       </c>
@@ -5859,7 +5855,7 @@
         <v>狩魂之戒</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -5871,7 +5867,7 @@
         <v>炎魔剑</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>143</v>
       </c>
@@ -5883,7 +5879,7 @@
         <v>炎魔盔</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>143</v>
       </c>
@@ -5895,7 +5891,7 @@
         <v>炎魔战甲</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>143</v>
       </c>
@@ -5907,7 +5903,7 @@
         <v>炎魔裤</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>143</v>
       </c>
@@ -5919,7 +5915,7 @@
         <v>炎魔战靴</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -5931,7 +5927,7 @@
         <v>炎魔之戒</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -5943,7 +5939,7 @@
         <v>血怒剑</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>144</v>
       </c>
@@ -5955,7 +5951,7 @@
         <v>血怒盔</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>144</v>
       </c>
@@ -5967,7 +5963,7 @@
         <v>血怒战甲</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>144</v>
       </c>
@@ -5979,7 +5975,7 @@
         <v>血怒裤</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>144</v>
       </c>
@@ -5991,7 +5987,7 @@
         <v>血怒战靴</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>144</v>
       </c>
@@ -6003,7 +5999,7 @@
         <v>血怒之戒</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>145</v>
       </c>
@@ -6015,7 +6011,7 @@
         <v>死神剑</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>145</v>
       </c>
@@ -6027,7 +6023,7 @@
         <v>死神盔</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>145</v>
       </c>
@@ -6039,7 +6035,7 @@
         <v>死神战甲</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>145</v>
       </c>
@@ -6051,7 +6047,7 @@
         <v>死神裤</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>145</v>
       </c>
@@ -6063,7 +6059,7 @@
         <v>死神战靴</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>145</v>
       </c>
@@ -6075,7 +6071,7 @@
         <v>死神之戒</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>141</v>
       </c>
@@ -6087,7 +6083,7 @@
         <v>王者剑</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>141</v>
       </c>
@@ -6099,7 +6095,7 @@
         <v>王者盔</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>141</v>
       </c>
@@ -6111,7 +6107,7 @@
         <v>王者战甲</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -6123,7 +6119,7 @@
         <v>王者裤</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>141</v>
       </c>
@@ -6135,7 +6131,7 @@
         <v>王者战靴</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>141</v>
       </c>
@@ -6154,14 +6150,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6173,16 +6171,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6193,13 +6189,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -6211,13 +6207,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/src/goods.xlsx
+++ b/src/goods.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977802B0-67C9-4D47-961F-EA9F9E8E3BB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19056" windowHeight="12876"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="225">
   <si>
     <t>ID</t>
   </si>
@@ -817,11 +826,23 @@
     <t>暂无描述,待考证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>金币是家与远征的通用货币，英雄、家园升级、装备强化等都需要消耗金币，通过主线挂机，完成日常任务、成就可获得大量金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石是家与远征的稀有货币，可以用于购买…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可提升主角等级，通过挂机、打怪、任务获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1164,25 +1185,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="33.625" customWidth="1"/>
+    <col min="2" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="2" customWidth="1"/>
+    <col min="7" max="8" width="21.5" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +1238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1252,7 +1273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1287,7 +1308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1298,7 +1319,7 @@
         <v>214</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -1316,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1327,7 +1348,7 @@
         <v>214</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -1345,7 +1366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1356,7 +1377,7 @@
         <v>215</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1374,7 +1395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>100</v>
       </c>
@@ -1406,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>101</v>
       </c>
@@ -1438,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>102</v>
       </c>
@@ -1470,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>103</v>
       </c>
@@ -1502,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>104</v>
       </c>
@@ -1534,7 +1555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>105</v>
       </c>
@@ -1566,7 +1587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>106</v>
       </c>
@@ -1598,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>107</v>
       </c>
@@ -1630,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>108</v>
       </c>
@@ -1662,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>109</v>
       </c>
@@ -1694,7 +1715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>110</v>
       </c>
@@ -1726,7 +1747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>111</v>
       </c>
@@ -1758,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>112</v>
       </c>
@@ -1790,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>113</v>
       </c>
@@ -1822,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1001</v>
       </c>
@@ -1857,7 +1878,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1002</v>
       </c>
@@ -1892,7 +1913,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1003</v>
       </c>
@@ -1927,7 +1948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1004</v>
       </c>
@@ -1962,7 +1983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1005</v>
       </c>
@@ -1997,7 +2018,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1006</v>
       </c>
@@ -2032,7 +2053,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1011</v>
       </c>
@@ -2067,7 +2088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1012</v>
       </c>
@@ -2102,7 +2123,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1013</v>
       </c>
@@ -2137,7 +2158,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1014</v>
       </c>
@@ -2172,7 +2193,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1015</v>
       </c>
@@ -2207,7 +2228,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1016</v>
       </c>
@@ -2242,7 +2263,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1021</v>
       </c>
@@ -2277,7 +2298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1022</v>
       </c>
@@ -2312,7 +2333,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1023</v>
       </c>
@@ -2347,7 +2368,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1024</v>
       </c>
@@ -2382,7 +2403,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1025</v>
       </c>
@@ -2417,7 +2438,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1026</v>
       </c>
@@ -2452,7 +2473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1031</v>
       </c>
@@ -2487,7 +2508,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1032</v>
       </c>
@@ -2522,7 +2543,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1033</v>
       </c>
@@ -2557,7 +2578,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1034</v>
       </c>
@@ -2592,7 +2613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1035</v>
       </c>
@@ -2627,7 +2648,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1036</v>
       </c>
@@ -2662,7 +2683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1041</v>
       </c>
@@ -2697,7 +2718,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1042</v>
       </c>
@@ -2732,7 +2753,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1043</v>
       </c>
@@ -2767,7 +2788,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1044</v>
       </c>
@@ -2802,7 +2823,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1045</v>
       </c>
@@ -2837,7 +2858,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1046</v>
       </c>
@@ -2872,7 +2893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1051</v>
       </c>
@@ -2907,7 +2928,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1052</v>
       </c>
@@ -2942,7 +2963,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1053</v>
       </c>
@@ -2977,7 +2998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1054</v>
       </c>
@@ -3012,7 +3033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1055</v>
       </c>
@@ -3047,7 +3068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1056</v>
       </c>
@@ -3082,7 +3103,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1061</v>
       </c>
@@ -3117,7 +3138,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1062</v>
       </c>
@@ -3152,7 +3173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1063</v>
       </c>
@@ -3187,7 +3208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1064</v>
       </c>
@@ -3222,7 +3243,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1065</v>
       </c>
@@ -3257,7 +3278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1066</v>
       </c>
@@ -3292,7 +3313,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1071</v>
       </c>
@@ -3327,7 +3348,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1072</v>
       </c>
@@ -3362,7 +3383,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1073</v>
       </c>
@@ -3397,7 +3418,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1074</v>
       </c>
@@ -3432,7 +3453,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1075</v>
       </c>
@@ -3467,7 +3488,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1076</v>
       </c>
@@ -3502,7 +3523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1081</v>
       </c>
@@ -3537,7 +3558,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1082</v>
       </c>
@@ -3572,7 +3593,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1083</v>
       </c>
@@ -3607,7 +3628,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1084</v>
       </c>
@@ -3642,7 +3663,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1085</v>
       </c>
@@ -3677,7 +3698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1086</v>
       </c>
@@ -3712,7 +3733,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1091</v>
       </c>
@@ -3747,7 +3768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1092</v>
       </c>
@@ -3782,7 +3803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1093</v>
       </c>
@@ -3817,7 +3838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1094</v>
       </c>
@@ -3852,7 +3873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1095</v>
       </c>
@@ -3887,7 +3908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1096</v>
       </c>
@@ -3922,7 +3943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1101</v>
       </c>
@@ -3957,7 +3978,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1102</v>
       </c>
@@ -3992,7 +4013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1103</v>
       </c>
@@ -4027,7 +4048,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1104</v>
       </c>
@@ -4062,7 +4083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1105</v>
       </c>
@@ -4097,7 +4118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1106</v>
       </c>
@@ -4132,7 +4153,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1111</v>
       </c>
@@ -4167,7 +4188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1112</v>
       </c>
@@ -4202,7 +4223,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1113</v>
       </c>
@@ -4237,7 +4258,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1114</v>
       </c>
@@ -4272,7 +4293,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1115</v>
       </c>
@@ -4307,7 +4328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1116</v>
       </c>
@@ -4342,7 +4363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2001</v>
       </c>
@@ -4372,7 +4393,7 @@
       </c>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2002</v>
       </c>
@@ -4402,7 +4423,7 @@
       </c>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2003</v>
       </c>
@@ -4432,7 +4453,7 @@
       </c>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2004</v>
       </c>
@@ -4462,7 +4483,7 @@
       </c>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2005</v>
       </c>
@@ -4492,7 +4513,7 @@
       </c>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2006</v>
       </c>
@@ -4522,7 +4543,7 @@
       </c>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2007</v>
       </c>
@@ -4552,7 +4573,7 @@
       </c>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2008</v>
       </c>
@@ -4582,7 +4603,7 @@
       </c>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2009</v>
       </c>
@@ -4612,7 +4633,7 @@
       </c>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2010</v>
       </c>
@@ -4642,7 +4663,7 @@
       </c>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2011</v>
       </c>
@@ -4672,7 +4693,7 @@
       </c>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2012</v>
       </c>
@@ -4702,7 +4723,7 @@
       </c>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2013</v>
       </c>
@@ -4732,7 +4753,7 @@
       </c>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2014</v>
       </c>
@@ -4762,7 +4783,7 @@
       </c>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2015</v>
       </c>
@@ -4792,7 +4813,7 @@
       </c>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2016</v>
       </c>
@@ -4822,7 +4843,7 @@
       </c>
       <c r="K108" s="1"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>3001</v>
       </c>
@@ -4854,7 +4875,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>3002</v>
       </c>
@@ -4886,7 +4907,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>3003</v>
       </c>
@@ -4918,7 +4939,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>3004</v>
       </c>
@@ -4950,7 +4971,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>3005</v>
       </c>
@@ -4982,7 +5003,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>3006</v>
       </c>
@@ -5014,7 +5035,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>3007</v>
       </c>
@@ -5046,7 +5067,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>3008</v>
       </c>
@@ -5078,7 +5099,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3009</v>
       </c>
@@ -5110,7 +5131,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3010</v>
       </c>
@@ -5142,7 +5163,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>3011</v>
       </c>
@@ -5174,7 +5195,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3012</v>
       </c>
@@ -5206,7 +5227,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>3013</v>
       </c>
@@ -5238,7 +5259,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3014</v>
       </c>
@@ -5270,7 +5291,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>3015</v>
       </c>
@@ -5302,7 +5323,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3016</v>
       </c>
@@ -5342,805 +5363,805 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C1" t="str">
-        <f>_xlfn.CONCAT(A1,B1)</f>
-        <v>风暴剑</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="e">
+        <f ca="1">_xlfn.CONCAT(A1,B1)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C65" si="0">_xlfn.CONCAT(A2,B2)</f>
-        <v>风暴盔</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="e">
+        <f t="shared" ref="C2:C65" ca="1" si="0">_xlfn.CONCAT(A2,B2)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>风暴战甲</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>风暴裤</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>风暴战靴</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>风暴之戒</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>136</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>龙骨剑</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>136</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>龙骨盔</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>龙骨战甲</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>龙骨裤</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>136</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>龙骨战靴</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>136</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>龙骨之戒</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>137</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>丛云剑</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>137</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>丛云盔</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>137</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>丛云战甲</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>137</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>丛云裤</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>137</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>丛云战靴</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>137</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>丛云之戒</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>138</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>勇士剑</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>138</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>勇士盔</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>138</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>勇士战甲</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>勇士裤</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>138</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>勇士战靴</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>138</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>勇士之戒</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>139</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>圣骑剑</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>圣骑盔</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>139</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>圣骑战甲</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>圣骑裤</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>139</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>圣骑战靴</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>139</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>圣骑之戒</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>140</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>吟游剑</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>140</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>吟游盔</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>140</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>吟游战甲</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>140</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>吟游裤</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>140</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>吟游战靴</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>140</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>吟游之戒</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>142</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>狩魂剑</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>142</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>狩魂盔</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>142</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v>狩魂战甲</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>142</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v>狩魂裤</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>142</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v>狩魂战靴</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>142</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v>狩魂之戒</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>143</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C43" t="str">
-        <f t="shared" si="0"/>
-        <v>炎魔剑</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>143</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C44" t="str">
-        <f t="shared" si="0"/>
-        <v>炎魔盔</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>143</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C45" t="str">
-        <f t="shared" si="0"/>
-        <v>炎魔战甲</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>143</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C46" t="str">
-        <f t="shared" si="0"/>
-        <v>炎魔裤</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>143</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C47" t="str">
-        <f t="shared" si="0"/>
-        <v>炎魔战靴</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>143</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v>炎魔之戒</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>144</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v>血怒剑</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>144</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C50" t="str">
-        <f t="shared" si="0"/>
-        <v>血怒盔</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>144</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C51" t="str">
-        <f t="shared" si="0"/>
-        <v>血怒战甲</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>144</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C52" t="str">
-        <f t="shared" si="0"/>
-        <v>血怒裤</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>144</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C53" t="str">
-        <f t="shared" si="0"/>
-        <v>血怒战靴</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>144</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C54" t="str">
-        <f t="shared" si="0"/>
-        <v>血怒之戒</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C55" t="str">
-        <f t="shared" si="0"/>
-        <v>死神剑</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C56" t="str">
-        <f t="shared" si="0"/>
-        <v>死神盔</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C57" t="str">
-        <f t="shared" si="0"/>
-        <v>死神战甲</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C58" t="str">
-        <f t="shared" si="0"/>
-        <v>死神裤</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C59" t="str">
-        <f t="shared" si="0"/>
-        <v>死神战靴</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C60" t="str">
-        <f t="shared" si="0"/>
-        <v>死神之戒</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>141</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C61" t="str">
-        <f t="shared" si="0"/>
-        <v>王者剑</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>141</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C62" t="str">
-        <f t="shared" si="0"/>
-        <v>王者盔</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>141</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C63" t="str">
-        <f t="shared" si="0"/>
-        <v>王者战甲</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>141</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C64" t="str">
-        <f t="shared" si="0"/>
-        <v>王者裤</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>141</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C65" t="str">
-        <f t="shared" si="0"/>
-        <v>王者战靴</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>141</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C66" t="str">
-        <f t="shared" ref="C66" si="1">_xlfn.CONCAT(A66,B66)</f>
-        <v>王者之戒</v>
+      <c r="C66" t="e">
+        <f t="shared" ref="C66" ca="1" si="1">_xlfn.CONCAT(A66,B66)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -6150,16 +6171,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6171,14 +6190,16 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6189,13 +6210,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -6207,13 +6228,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
